--- a/data/trans_dic/P18_4_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P18_4_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:W12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -532,12 +533,18 @@
     <col width="14" customWidth="1" min="15" max="15"/>
     <col width="14" customWidth="1" min="16" max="16"/>
     <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se ha sentido disfrutando la vida en ningún momento o casi ningún momento en la última semana</t>
+          <t>Población que se ha sentido disfrutando la vida en ningún momento o casi ningún momento en la última semana (tasa de respuesta: 99,43%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -550,24 +557,30 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
       <c r="O1" s="3" t="n"/>
       <c r="P1" s="3" t="n"/>
-      <c r="Q1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -594,57 +607,87 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="T2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -666,6 +709,12 @@
       <c r="O3" s="2" t="n"/>
       <c r="P3" s="2" t="n"/>
       <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -685,72 +734,102 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>11,03%</t>
+          <t>11,24%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>12,47%</t>
+          <t>12,97%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>9,1%</t>
+          <t>9,08%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>91,08%</t>
+          <t>6,7%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
+          <t>8,92%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>9,17%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>30,63%</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>11,26%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>16,72%</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>13,58%</t>
+          <t>11,53%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>87,38%</t>
+          <t>16,57%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
+          <t>13,6%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>9,19%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>12,62%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>10,86%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
           <t>30,96%</t>
         </is>
       </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>11,15%</t>
-        </is>
-      </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>14,69%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>11,39%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>14,86%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
         <is>
           <t>11,45%</t>
         </is>
       </c>
-      <c r="Q4" s="2" t="inlineStr">
-        <is>
-          <t>89,19%</t>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>8,01%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>10,81%</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>10,03%</t>
         </is>
       </c>
     </row>
@@ -763,77 +842,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>27,47; 35,63</t>
+          <t>27,44; 35,46</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,26; 15,4</t>
+          <t>8,34; 15,68</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,78; 15,95</t>
+          <t>9,99; 17,45</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,0; 11,66</t>
+          <t>7,0; 11,63</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>88,62; 93,22</t>
+          <t>4,68; 9,59</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>27,66; 34,26</t>
+          <t>7,08; 11,65</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>8,53; 13,65</t>
+          <t>7,22; 11,74</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>14,24; 19,65</t>
+          <t>27,68; 34,32</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>11,14; 15,94</t>
+          <t>9,07; 13,97</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>84,99; 89,7</t>
+          <t>14,02; 19,25</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>28,58; 33,57</t>
+          <t>11,38; 16,13</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>9,16; 13,2</t>
+          <t>7,12; 12,05</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>12,74; 16,91</t>
+          <t>10,32; 15,37</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>10,02; 13,29</t>
+          <t>8,87; 13,39</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>87,46; 90,97</t>
+          <t>28,22; 33,59</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>9,38; 14,03</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>12,97; 17,4</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>9,91; 13,23</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>6,34; 9,96</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>9,04; 12,62</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>8,61; 11,58</t>
         </is>
       </c>
     </row>
@@ -850,77 +959,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>26,49%</t>
+          <t>26,5%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,61%</t>
+          <t>5,78%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>12,78%</t>
+          <t>12,69%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>8,56%</t>
+          <t>8,64%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>89,24%</t>
+          <t>6,87%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
+          <t>10,75%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>8,36%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>30,91%</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>10,16%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>18,07%</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>14,53%</t>
+          <t>10,48%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>80,38%</t>
+          <t>17,99%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
+          <t>14,75%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>8,31%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>19,63%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>8,29%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
           <t>28,74%</t>
         </is>
       </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>7,92%</t>
-        </is>
-      </c>
-      <c r="O6" s="2" t="inlineStr">
-        <is>
-          <t>15,41%</t>
-        </is>
-      </c>
-      <c r="P6" s="2" t="inlineStr">
-        <is>
-          <t>11,55%</t>
-        </is>
-      </c>
-      <c r="Q6" s="2" t="inlineStr">
-        <is>
-          <t>85,03%</t>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>8,16%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>15,33%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>11,7%</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>7,59%</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>14,97%</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>8,32%</t>
         </is>
       </c>
     </row>
@@ -933,77 +1072,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>22,73; 31,78</t>
+          <t>22,41; 31,41</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,66; 8,19</t>
+          <t>3,98; 8,82</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>9,7; 16,58</t>
+          <t>9,58; 16,94</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,12; 12,34</t>
+          <t>6,2; 12,43</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>83,71; 93,07</t>
+          <t>4,58; 9,69</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>27,45; 35,09</t>
+          <t>6,93; 16,33</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,68; 13,45</t>
+          <t>5,41; 12,8</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>15,04; 21,33</t>
+          <t>27,09; 34,75</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>11,23; 18,19</t>
+          <t>7,83; 14,22</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>72,57; 85,54</t>
+          <t>14,93; 20,97</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>25,96; 31,8</t>
+          <t>11,78; 19,79</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>6,25; 9,99</t>
+          <t>5,76; 10,67</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>13,18; 17,92</t>
+          <t>14,1; 26,74</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>9,54; 14,15</t>
+          <t>4,94; 13,91</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>80,67; 88,56</t>
+          <t>25,94; 31,71</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>6,51; 10,39</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>13,17; 17,86</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>9,47; 14,43</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>6,09; 9,42</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>11,41; 19,15</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>6,06; 11,57</t>
         </is>
       </c>
     </row>
@@ -1025,70 +1194,100 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>7,14%</t>
+          <t>6,2%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>14,91%</t>
+          <t>15,19%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>8,56%</t>
+          <t>8,77%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>13,07%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
         <is>
           <t>38,6%</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>15,28%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>19,22%</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>11,85%</t>
+          <t>16,55%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
+          <t>19,78%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>11,82%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>7,34%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="M8" s="2" t="inlineStr">
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
         <is>
           <t>36,28%</t>
         </is>
       </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>11,13%</t>
-        </is>
-      </c>
-      <c r="O8" s="2" t="inlineStr">
-        <is>
-          <t>17,03%</t>
-        </is>
-      </c>
-      <c r="P8" s="2" t="inlineStr">
-        <is>
-          <t>10,21%</t>
-        </is>
-      </c>
-      <c r="Q8" s="2" t="inlineStr">
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>11,27%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>17,45%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>10,3%</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>10,22%</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1103,75 +1302,105 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>25,12; 43,21</t>
+          <t>25,58; 44,22</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,11; 16,35</t>
+          <t>2,71; 12,02</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>9,23; 21,39</t>
+          <t>9,84; 22,66</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,85; 13,99</t>
+          <t>5,05; 14,89</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>7,0; 26,43</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>31,57; 46,11</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>9,87; 22,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>13,49; 25,82</t>
+          <t>31,88; 46,46</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>7,24; 17,13</t>
+          <t>10,63; 23,9</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
+          <t>14,22; 27,01</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>7,57; 17,84</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>3,38; 13,02</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>30,37; 42,44</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>7,56; 16,76</t>
-        </is>
-      </c>
-      <c r="O9" s="2" t="inlineStr">
-        <is>
-          <t>13,04; 21,76</t>
-        </is>
-      </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>7,02; 14,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>30,82; 42,82</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>7,71; 16,03</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>13,26; 21,98</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>7,36; 13,97</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>6,09; 16,69</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1195,72 +1424,102 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8,4%</t>
+          <t>8,45%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>12,89%</t>
+          <t>13,13%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>8,82%</t>
+          <t>8,87%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>90,64%</t>
+          <t>7,54%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
+          <t>9,36%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>8,97%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>31,63%</t>
         </is>
       </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>11,29%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>17,51%</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>13,75%</t>
+          <t>11,69%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>85,87%</t>
+          <t>17,48%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
+          <t>13,84%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>8,64%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>14,13%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>10,29%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
           <t>30,7%</t>
         </is>
       </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>9,88%</t>
-        </is>
-      </c>
-      <c r="O10" s="2" t="inlineStr">
-        <is>
-          <t>15,25%</t>
-        </is>
-      </c>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>11,34%</t>
-        </is>
-      </c>
-      <c r="Q10" s="2" t="inlineStr">
-        <is>
-          <t>88,25%</t>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>10,11%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>15,35%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>11,41%</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>8,11%</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>11,75%</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>9,63%</t>
         </is>
       </c>
     </row>
@@ -1273,90 +1532,1738 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>26,96; 32,53</t>
+          <t>27,02; 32,52</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,75; 10,66</t>
+          <t>6,67; 10,8</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>10,87; 15,06</t>
+          <t>11,09; 15,72</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,37; 10,73</t>
+          <t>7,3; 10,85</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>88,46; 92,47</t>
+          <t>5,89; 9,69</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>29,22; 33,97</t>
+          <t>7,55; 11,66</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>9,32; 13,11</t>
+          <t>7,27; 11,24</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>15,56; 19,39</t>
+          <t>29,38; 34,1</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>12,08; 16,16</t>
+          <t>9,97; 13,72</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>83,33; 88,05</t>
+          <t>15,5; 19,34</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>28,96; 32,61</t>
+          <t>11,93; 16,01</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>8,52; 11,42</t>
+          <t>7,06; 10,47</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>14,01; 16,87</t>
+          <t>11,53; 16,74</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>10,02; 12,65</t>
+          <t>8,28; 12,36</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>86,56; 89,72</t>
+          <t>28,84; 32,36</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>8,83; 11,71</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>13,84; 17,07</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>10,21; 12,83</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>6,95; 9,63</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>10,36; 13,35</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>8,39; 11,17</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="C1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se ha sentido disfrutando la vida en ningún momento o casi ningún momento en la última semana (tasa de respuesta: 99,43%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>199.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>235.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>137.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>105.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>434.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>129.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>214.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>180.0</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>168.0</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>158.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>505914</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>183084</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>211124</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>148083</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>108922</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>20388</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>20728</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>541601</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>205706</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>296083</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>244880</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>165654</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>29934</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>25498</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>1047515</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>388791</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>507207</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>392963</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>274576</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>50322</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>46226</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>443168; 572714</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>135948; 255519</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>162568; 283994</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>114137; 189619</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>76017; 155807</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>16174; 26624</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>16323; 26548</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>489484; 606840</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>161801; 249294</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>250464; 343859</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>204907; 290436</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>128412; 217092</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>24484; 36449</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>20842; 31448</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>954786; 1136493</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>320221; 478948</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>442645; 593858</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>340134; 454021</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>217361; 341261</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>42106; 58769</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>39698; 53396</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>136.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>186.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>322.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>172.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>125.0</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>358360</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>78185</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>172150</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>117983</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>94664</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>7733</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>6020</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>430371</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>145379</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>241483</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>201781</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>113765</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>12762</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>5479</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>788731</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>223564</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>413633</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>319764</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>208429</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>20496</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>11499</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>303104; 424823</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>53797; 119271</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>129854; 229738</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>84617; 169672</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>63139; 133635</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>4980; 11740</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>3898; 9218</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>377142; 483846</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>108596; 197221</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>200314; 281426</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>161222; 270791</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>78845; 145965</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>9167; 17386</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>3267; 9198</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>712098; 870444</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>178232; 284644</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>355310; 481835</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>258699; 394387</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>167276; 258726</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>15626; 26217</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>8367; 15991</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>141131</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>26013</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>62946</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>35647</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>54433</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>152931</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>66908</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>79421</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>48174</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>30226</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>294062</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>92920</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>142366</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>83821</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>84659</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>105979; 183214</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>11394; 50475</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>40786; 93891</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>20517; 60514</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>29134; 110075</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>126299; 184069</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>42967; 96631</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>57069; 108416</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>30835; 72698</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>13932; 53613</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>249789; 347045</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>63548; 132122</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>108216; 179311</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>59891; 113732</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>50414; 138275</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>381.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>159.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>487.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>147.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>281.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>218.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>107.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>145.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>868.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>235.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>440.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>340.0</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>185.0</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>231.0</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>198.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>1005405</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>287282</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>446220</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>301713</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>258020</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>28122</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>26748</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>1124902</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>417993</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>616987</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>494835</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>309645</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>42696</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>30977</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>2130307</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>705275</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>1063207</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>796548</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>567665</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>70818</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>57725</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>913823; 1099671</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>226782; 367410</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>376864; 534217</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>248454; 369242</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>201440; 331460</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>22688; 35025</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>21677; 33501</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1045125; 1212769</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>356480; 490600</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>547286; 682845</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>426489; 572395</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>252999; 375095</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>34847; 50576</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>24927; 37215</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>2000820; 2245073</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>616116; 816702</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>959032; 1182279</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>712132; 895546</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>486935; 674612</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>62408; 80448</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>50284; 66950</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
